--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Il1f5-Il1rl2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Il1f5-Il1rl2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Il1f5</t>
+  </si>
+  <si>
+    <t>Il1rl2</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Il1f5</t>
-  </si>
-  <si>
-    <t>Il1rl2</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -540,16 +540,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.06035866666666666</v>
+        <v>0.02506066666666667</v>
       </c>
       <c r="H2">
-        <v>0.181076</v>
+        <v>0.075182</v>
       </c>
       <c r="I2">
-        <v>0.4230174415616576</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.4230174415616575</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.387388666666666</v>
+        <v>3.698965666666667</v>
       </c>
       <c r="N2">
-        <v>7.162165999999999</v>
+        <v>11.096897</v>
       </c>
       <c r="O2">
-        <v>0.1154963219257154</v>
+        <v>0.1686049707643833</v>
       </c>
       <c r="P2">
-        <v>0.1154963219257154</v>
+        <v>0.1686049707643834</v>
       </c>
       <c r="Q2">
-        <v>0.1440995967351111</v>
+        <v>0.09269854558377777</v>
       </c>
       <c r="R2">
-        <v>1.296896370616</v>
+        <v>0.834286910254</v>
       </c>
       <c r="S2">
-        <v>0.04885695861079772</v>
+        <v>0.1686049707643833</v>
       </c>
       <c r="T2">
-        <v>0.04885695861079771</v>
+        <v>0.1686049707643834</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,13 +587,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -602,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.06035866666666666</v>
+        <v>0.02506066666666667</v>
       </c>
       <c r="H3">
-        <v>0.181076</v>
+        <v>0.075182</v>
       </c>
       <c r="I3">
-        <v>0.4230174415616576</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.4230174415616575</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>44.230414</v>
       </c>
       <c r="O3">
-        <v>0.7132549195664651</v>
+        <v>0.6720317994630906</v>
       </c>
       <c r="P3">
-        <v>0.713254919566465</v>
+        <v>0.6720317994630907</v>
       </c>
       <c r="Q3">
-        <v>0.8898962717182222</v>
+        <v>0.3694812205942222</v>
       </c>
       <c r="R3">
-        <v>8.009066445463999</v>
+        <v>3.325330985348</v>
       </c>
       <c r="S3">
-        <v>0.301719271256272</v>
+        <v>0.6720317994630906</v>
       </c>
       <c r="T3">
-        <v>0.3017192712562718</v>
+        <v>0.6720317994630907</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -664,16 +664,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.06035866666666666</v>
+        <v>0.02506066666666667</v>
       </c>
       <c r="H4">
-        <v>0.181076</v>
+        <v>0.075182</v>
       </c>
       <c r="I4">
-        <v>0.4230174415616576</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.4230174415616575</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.176194</v>
+        <v>1.436535666666667</v>
       </c>
       <c r="N4">
-        <v>3.528582</v>
+        <v>4.309607</v>
       </c>
       <c r="O4">
-        <v>0.0569015354591453</v>
+        <v>0.06547967078012726</v>
       </c>
       <c r="P4">
-        <v>0.0569015354591453</v>
+        <v>0.06547967078012726</v>
       </c>
       <c r="Q4">
-        <v>0.07099350158133333</v>
+        <v>0.03600054149711111</v>
       </c>
       <c r="R4">
-        <v>0.638941514232</v>
+        <v>0.324004873474</v>
       </c>
       <c r="S4">
-        <v>0.02407034195085759</v>
+        <v>0.06547967078012726</v>
       </c>
       <c r="T4">
-        <v>0.02407034195085758</v>
+        <v>0.06547967078012726</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
@@ -726,16 +726,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.06035866666666666</v>
+        <v>0.02506066666666667</v>
       </c>
       <c r="H5">
-        <v>0.181076</v>
+        <v>0.075182</v>
       </c>
       <c r="I5">
-        <v>0.4230174415616576</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.4230174415616575</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.486999</v>
+        <v>0.6025163333333333</v>
       </c>
       <c r="N5">
-        <v>1.460997</v>
+        <v>1.807549</v>
       </c>
       <c r="O5">
-        <v>0.02355988116506996</v>
+        <v>0.02746369064254542</v>
       </c>
       <c r="P5">
-        <v>0.02355988116506996</v>
+        <v>0.02746369064254542</v>
       </c>
       <c r="Q5">
-        <v>0.029394610308</v>
+        <v>0.01509946099088889</v>
       </c>
       <c r="R5">
-        <v>0.264551492772</v>
+        <v>0.135895148918</v>
       </c>
       <c r="S5">
-        <v>0.00996624065394458</v>
+        <v>0.02746369064254542</v>
       </c>
       <c r="T5">
-        <v>0.009966240653944579</v>
+        <v>0.02746369064254542</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -788,16 +788,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.06035866666666666</v>
+        <v>0.02506066666666667</v>
       </c>
       <c r="H6">
-        <v>0.181076</v>
+        <v>0.075182</v>
       </c>
       <c r="I6">
-        <v>0.4230174415616576</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0.4230174415616575</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,338 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.876637</v>
+        <v>1.457162333333333</v>
       </c>
       <c r="N6">
-        <v>5.629911</v>
+        <v>4.371487</v>
       </c>
       <c r="O6">
-        <v>0.09078734188360428</v>
+        <v>0.06641986834985329</v>
       </c>
       <c r="P6">
-        <v>0.09078734188360428</v>
+        <v>0.06641986834985329</v>
       </c>
       <c r="Q6">
-        <v>0.1132713071373333</v>
+        <v>0.03651745951488889</v>
       </c>
       <c r="R6">
-        <v>1.019441764236</v>
+        <v>0.328657135634</v>
       </c>
       <c r="S6">
-        <v>0.03840462908978581</v>
+        <v>0.06641986834985329</v>
       </c>
       <c r="T6">
-        <v>0.0384046290897858</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G7">
-        <v>0.08232733333333332</v>
-      </c>
-      <c r="H7">
-        <v>0.246982</v>
-      </c>
-      <c r="I7">
-        <v>0.5769825584383425</v>
-      </c>
-      <c r="J7">
-        <v>0.5769825584383425</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>2.387388666666666</v>
-      </c>
-      <c r="N7">
-        <v>7.162165999999999</v>
-      </c>
-      <c r="O7">
-        <v>0.1154963219257154</v>
-      </c>
-      <c r="P7">
-        <v>0.1154963219257154</v>
-      </c>
-      <c r="Q7">
-        <v>0.1965473425568888</v>
-      </c>
-      <c r="R7">
-        <v>1.768926083012</v>
-      </c>
-      <c r="S7">
-        <v>0.06663936331491772</v>
-      </c>
-      <c r="T7">
-        <v>0.06663936331491771</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G8">
-        <v>0.08232733333333332</v>
-      </c>
-      <c r="H8">
-        <v>0.246982</v>
-      </c>
-      <c r="I8">
-        <v>0.5769825584383425</v>
-      </c>
-      <c r="J8">
-        <v>0.5769825584383425</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>14.74347133333333</v>
-      </c>
-      <c r="N8">
-        <v>44.230414</v>
-      </c>
-      <c r="O8">
-        <v>0.7132549195664651</v>
-      </c>
-      <c r="P8">
-        <v>0.713254919566465</v>
-      </c>
-      <c r="Q8">
-        <v>1.213790678949777</v>
-      </c>
-      <c r="R8">
-        <v>10.924116110548</v>
-      </c>
-      <c r="S8">
-        <v>0.4115356483101932</v>
-      </c>
-      <c r="T8">
-        <v>0.4115356483101932</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G9">
-        <v>0.08232733333333332</v>
-      </c>
-      <c r="H9">
-        <v>0.246982</v>
-      </c>
-      <c r="I9">
-        <v>0.5769825584383425</v>
-      </c>
-      <c r="J9">
-        <v>0.5769825584383425</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>1.176194</v>
-      </c>
-      <c r="N9">
-        <v>3.528582</v>
-      </c>
-      <c r="O9">
-        <v>0.0569015354591453</v>
-      </c>
-      <c r="P9">
-        <v>0.0569015354591453</v>
-      </c>
-      <c r="Q9">
-        <v>0.09683291550266665</v>
-      </c>
-      <c r="R9">
-        <v>0.8714962395239999</v>
-      </c>
-      <c r="S9">
-        <v>0.03283119350828772</v>
-      </c>
-      <c r="T9">
-        <v>0.03283119350828772</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G10">
-        <v>0.08232733333333332</v>
-      </c>
-      <c r="H10">
-        <v>0.246982</v>
-      </c>
-      <c r="I10">
-        <v>0.5769825584383425</v>
-      </c>
-      <c r="J10">
-        <v>0.5769825584383425</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.486999</v>
-      </c>
-      <c r="N10">
-        <v>1.460997</v>
-      </c>
-      <c r="O10">
-        <v>0.02355988116506996</v>
-      </c>
-      <c r="P10">
-        <v>0.02355988116506996</v>
-      </c>
-      <c r="Q10">
-        <v>0.04009332900599999</v>
-      </c>
-      <c r="R10">
-        <v>0.360839961054</v>
-      </c>
-      <c r="S10">
-        <v>0.01359364051112538</v>
-      </c>
-      <c r="T10">
-        <v>0.01359364051112538</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G11">
-        <v>0.08232733333333332</v>
-      </c>
-      <c r="H11">
-        <v>0.246982</v>
-      </c>
-      <c r="I11">
-        <v>0.5769825584383425</v>
-      </c>
-      <c r="J11">
-        <v>0.5769825584383425</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>1.876637</v>
-      </c>
-      <c r="N11">
-        <v>5.629911</v>
-      </c>
-      <c r="O11">
-        <v>0.09078734188360428</v>
-      </c>
-      <c r="P11">
-        <v>0.09078734188360428</v>
-      </c>
-      <c r="Q11">
-        <v>0.1544985198446666</v>
-      </c>
-      <c r="R11">
-        <v>1.390486678602</v>
-      </c>
-      <c r="S11">
-        <v>0.05238271279381848</v>
-      </c>
-      <c r="T11">
-        <v>0.05238271279381848</v>
+        <v>0.06641986834985329</v>
       </c>
     </row>
   </sheetData>
